--- a/test/benchmark-4.4.38-nort/xlsx/mixbench-cuda-alt.xlsx
+++ b/test/benchmark-4.4.38-nort/xlsx/mixbench-cuda-alt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,25 +32,25 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mixbench-cuda-alt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/csv/mixbench-cuda-alt.csv" delimited="0" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/csv/mixbench-cuda-alt.csv" decimal="," thousands="." comma="1">
       <textFields count="17">
         <textField/>
-        <textField position="14"/>
-        <textField position="26"/>
-        <textField position="35"/>
-        <textField position="44"/>
-        <textField position="52"/>
-        <textField position="64"/>
-        <textField position="73"/>
-        <textField position="82"/>
-        <textField position="90"/>
-        <textField position="102"/>
-        <textField position="111"/>
-        <textField position="120"/>
-        <textField position="128"/>
-        <textField position="139"/>
-        <textField position="151"/>
-        <textField position="157"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
       </textFields>
     </textPr>
   </connection>
@@ -58,1182 +58,1188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="392">
-  <si>
-    <t>Experiment ID,</t>
-  </si>
-  <si>
-    <t>Single Prec</t>
-  </si>
-  <si>
-    <t>ision ops</t>
-  </si>
-  <si>
-    <t>,,,,</t>
-  </si>
-  <si>
-    <t>Double prec</t>
-  </si>
-  <si>
-    <t>Half precis</t>
-  </si>
-  <si>
-    <t>ion ops,,</t>
-  </si>
-  <si>
-    <t>,,</t>
-  </si>
-  <si>
-    <t>Integer op</t>
-  </si>
-  <si>
-    <t>erations,,,</t>
-  </si>
-  <si>
-    <t>Compute iters,</t>
-  </si>
-  <si>
-    <t>Flops/byte,</t>
-  </si>
-  <si>
-    <t>ex.time,</t>
-  </si>
-  <si>
-    <t>GFLOPS,</t>
-  </si>
-  <si>
-    <t>GB/sec,</t>
-  </si>
-  <si>
-    <t>Iops/byte,</t>
-  </si>
-  <si>
-    <t>GIOPS,</t>
-  </si>
-  <si>
-    <t>GB/sec</t>
-  </si>
-  <si>
-    <t>0.000,</t>
-  </si>
-  <si>
-    <t>387.18,</t>
-  </si>
-  <si>
-    <t>0.00,</t>
-  </si>
-  <si>
-    <t>22.19,</t>
-  </si>
-  <si>
-    <t>454.15,</t>
-  </si>
-  <si>
-    <t>37.83,</t>
-  </si>
-  <si>
-    <t>220.53,</t>
-  </si>
-  <si>
-    <t>38.95,</t>
-  </si>
-  <si>
-    <t>220.76,</t>
-  </si>
-  <si>
-    <t>38.91</t>
-  </si>
-  <si>
-    <t>0.129,</t>
-  </si>
-  <si>
-    <t>215.62,</t>
-  </si>
-  <si>
-    <t>4.98,</t>
-  </si>
-  <si>
-    <t>38.59,</t>
-  </si>
-  <si>
-    <t>0.065,</t>
-  </si>
-  <si>
-    <t>441.26,</t>
-  </si>
-  <si>
-    <t>2.43,</t>
-  </si>
-  <si>
-    <t>37.72,</t>
-  </si>
-  <si>
-    <t>0.258,</t>
-  </si>
-  <si>
-    <t>214.87,</t>
-  </si>
-  <si>
-    <t>9.99,</t>
-  </si>
-  <si>
-    <t>38.73,</t>
-  </si>
-  <si>
-    <t>216.35,</t>
-  </si>
-  <si>
-    <t>4.96,</t>
-  </si>
-  <si>
-    <t>38.46</t>
-  </si>
-  <si>
-    <t>0.267,</t>
-  </si>
-  <si>
-    <t>208.51,</t>
-  </si>
-  <si>
-    <t>10.30,</t>
-  </si>
-  <si>
-    <t>38.62,</t>
-  </si>
-  <si>
-    <t>0.133,</t>
-  </si>
-  <si>
-    <t>427.78,</t>
-  </si>
-  <si>
-    <t>5.02,</t>
-  </si>
-  <si>
-    <t>37.65,</t>
-  </si>
-  <si>
-    <t>0.533,</t>
-  </si>
-  <si>
-    <t>209.30,</t>
-  </si>
-  <si>
-    <t>20.52,</t>
-  </si>
-  <si>
-    <t>38.48,</t>
-  </si>
-  <si>
-    <t>208.07,</t>
-  </si>
-  <si>
-    <t>10.32,</t>
-  </si>
-  <si>
-    <t>38.70</t>
-  </si>
-  <si>
-    <t>0.414,</t>
-  </si>
-  <si>
-    <t>204.11,</t>
-  </si>
-  <si>
-    <t>15.78,</t>
-  </si>
-  <si>
-    <t>38.14,</t>
-  </si>
-  <si>
-    <t>0.207,</t>
-  </si>
-  <si>
-    <t>414.03,</t>
-  </si>
-  <si>
-    <t>7.78,</t>
-  </si>
-  <si>
-    <t>37.60,</t>
-  </si>
-  <si>
-    <t>0.828,</t>
-  </si>
-  <si>
-    <t>203.70,</t>
-  </si>
-  <si>
-    <t>31.63,</t>
-  </si>
-  <si>
-    <t>38.22,</t>
-  </si>
-  <si>
-    <t>204.26,</t>
-  </si>
-  <si>
-    <t>15.77,</t>
-  </si>
-  <si>
-    <t>38.11</t>
-  </si>
-  <si>
-    <t>0.571,</t>
-  </si>
-  <si>
-    <t>197.37,</t>
-  </si>
-  <si>
-    <t>21.76,</t>
-  </si>
-  <si>
-    <t>38.08,</t>
-  </si>
-  <si>
-    <t>0.286,</t>
-  </si>
-  <si>
-    <t>514.65,</t>
-  </si>
-  <si>
-    <t>8.35,</t>
-  </si>
-  <si>
-    <t>29.21,</t>
-  </si>
-  <si>
-    <t>197.28,</t>
-  </si>
-  <si>
-    <t>43.54,</t>
-  </si>
-  <si>
-    <t>38.10,</t>
-  </si>
-  <si>
-    <t>197.78,</t>
-  </si>
-  <si>
-    <t>21.72,</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>0.741,</t>
-  </si>
-  <si>
-    <t>191.07,</t>
-  </si>
-  <si>
-    <t>28.10,</t>
-  </si>
-  <si>
-    <t>37.93,</t>
-  </si>
-  <si>
-    <t>0.370,</t>
-  </si>
-  <si>
-    <t>643.00,</t>
-  </si>
-  <si>
-    <t>22.54,</t>
-  </si>
-  <si>
-    <t>191.40,</t>
-  </si>
-  <si>
-    <t>56.10,</t>
-  </si>
-  <si>
-    <t>37.87,</t>
-  </si>
-  <si>
-    <t>190.82,</t>
-  </si>
-  <si>
-    <t>28.13,</t>
-  </si>
-  <si>
-    <t>37.98</t>
-  </si>
-  <si>
-    <t>0.923,</t>
-  </si>
-  <si>
-    <t>183.72,</t>
-  </si>
-  <si>
-    <t>35.07,</t>
-  </si>
-  <si>
-    <t>37.99,</t>
-  </si>
-  <si>
-    <t>0.462,</t>
-  </si>
-  <si>
-    <t>771.38,</t>
-  </si>
-  <si>
-    <t>18.10,</t>
-  </si>
-  <si>
-    <t>183.33,</t>
-  </si>
-  <si>
-    <t>70.28,</t>
-  </si>
-  <si>
-    <t>38.07,</t>
-  </si>
-  <si>
-    <t>183.24,</t>
-  </si>
-  <si>
-    <t>35.16,</t>
-  </si>
-  <si>
-    <t>38.09</t>
-  </si>
-  <si>
-    <t>176.68,</t>
-  </si>
-  <si>
-    <t>42.54,</t>
-  </si>
-  <si>
-    <t>37.98,</t>
-  </si>
-  <si>
-    <t>0.560,</t>
-  </si>
-  <si>
-    <t>899.75,</t>
-  </si>
-  <si>
-    <t>14.92,</t>
-  </si>
-  <si>
-    <t>176.86,</t>
-  </si>
-  <si>
-    <t>84.99,</t>
-  </si>
-  <si>
-    <t>37.94,</t>
-  </si>
-  <si>
-    <t>177.05,</t>
-  </si>
-  <si>
-    <t>42.45,</t>
-  </si>
-  <si>
-    <t>37.90</t>
-  </si>
-  <si>
-    <t>168.62,</t>
-  </si>
-  <si>
-    <t>50.94,</t>
-  </si>
-  <si>
-    <t>38.21,</t>
-  </si>
-  <si>
-    <t>0.667,</t>
-  </si>
-  <si>
-    <t>1028.12,</t>
-  </si>
-  <si>
-    <t>12.53,</t>
-  </si>
-  <si>
-    <t>169.00,</t>
-  </si>
-  <si>
-    <t>101.65,</t>
-  </si>
-  <si>
-    <t>38.12,</t>
-  </si>
-  <si>
-    <t>168.03,</t>
-  </si>
-  <si>
-    <t>51.12,</t>
-  </si>
-  <si>
-    <t>38.34</t>
-  </si>
-  <si>
-    <t>162.56,</t>
-  </si>
-  <si>
-    <t>59.45,</t>
-  </si>
-  <si>
-    <t>0.783,</t>
-  </si>
-  <si>
-    <t>1156.50,</t>
-  </si>
-  <si>
-    <t>8.36,</t>
-  </si>
-  <si>
-    <t>10.68,</t>
-  </si>
-  <si>
-    <t>161.90,</t>
-  </si>
-  <si>
-    <t>119.38,</t>
-  </si>
-  <si>
-    <t>38.13,</t>
-  </si>
-  <si>
-    <t>162.49,</t>
-  </si>
-  <si>
-    <t>59.47,</t>
-  </si>
-  <si>
-    <t>155.48,</t>
-  </si>
-  <si>
-    <t>69.06,</t>
-  </si>
-  <si>
-    <t>0.909,</t>
-  </si>
-  <si>
-    <t>1284.89,</t>
-  </si>
-  <si>
-    <t>9.19,</t>
-  </si>
-  <si>
-    <t>155.46,</t>
-  </si>
-  <si>
-    <t>138.14,</t>
-  </si>
-  <si>
-    <t>155.14,</t>
-  </si>
-  <si>
-    <t>69.21,</t>
-  </si>
-  <si>
-    <t>38.07</t>
-  </si>
-  <si>
-    <t>149.12,</t>
-  </si>
-  <si>
-    <t>79.21,</t>
-  </si>
-  <si>
-    <t>37.80,</t>
-  </si>
-  <si>
-    <t>1413.27,</t>
-  </si>
-  <si>
-    <t>7.98,</t>
-  </si>
-  <si>
-    <t>148.61,</t>
-  </si>
-  <si>
-    <t>158.95,</t>
-  </si>
-  <si>
-    <t>151.24,</t>
-  </si>
-  <si>
-    <t>78.09,</t>
-  </si>
-  <si>
-    <t>37.27</t>
-  </si>
-  <si>
-    <t>142.37,</t>
-  </si>
-  <si>
-    <t>90.50,</t>
-  </si>
-  <si>
-    <t>37.71,</t>
-  </si>
-  <si>
-    <t>1541.63,</t>
-  </si>
-  <si>
-    <t>6.96,</t>
-  </si>
-  <si>
-    <t>142.96,</t>
-  </si>
-  <si>
-    <t>180.26,</t>
-  </si>
-  <si>
-    <t>37.55,</t>
-  </si>
-  <si>
-    <t>159.97,</t>
-  </si>
-  <si>
-    <t>80.54,</t>
-  </si>
-  <si>
-    <t>33.56</t>
-  </si>
-  <si>
-    <t>136.24,</t>
-  </si>
-  <si>
-    <t>102.45,</t>
-  </si>
-  <si>
-    <t>37.44,</t>
-  </si>
-  <si>
-    <t>1670.01,</t>
-  </si>
-  <si>
-    <t>6.11,</t>
-  </si>
-  <si>
-    <t>136.22,</t>
-  </si>
-  <si>
-    <t>204.94,</t>
-  </si>
-  <si>
-    <t>176.09,</t>
-  </si>
-  <si>
-    <t>79.27,</t>
-  </si>
-  <si>
-    <t>28.96</t>
-  </si>
-  <si>
-    <t>129.00,</t>
-  </si>
-  <si>
-    <t>116.53,</t>
-  </si>
-  <si>
-    <t>37.46,</t>
-  </si>
-  <si>
-    <t>1798.38,</t>
-  </si>
-  <si>
-    <t>5.37,</t>
-  </si>
-  <si>
-    <t>233.06,</t>
-  </si>
-  <si>
-    <t>185.27,</t>
-  </si>
-  <si>
-    <t>81.14,</t>
-  </si>
-  <si>
-    <t>26.08</t>
-  </si>
-  <si>
-    <t>122.42,</t>
-  </si>
-  <si>
-    <t>131.57,</t>
-  </si>
-  <si>
-    <t>37.28,</t>
-  </si>
-  <si>
-    <t>1926.76,</t>
-  </si>
-  <si>
-    <t>4.74,</t>
-  </si>
-  <si>
-    <t>122.14,</t>
-  </si>
-  <si>
-    <t>263.74,</t>
-  </si>
-  <si>
-    <t>37.36,</t>
-  </si>
-  <si>
-    <t>194.86,</t>
-  </si>
-  <si>
-    <t>82.66,</t>
-  </si>
-  <si>
-    <t>23.42</t>
-  </si>
-  <si>
-    <t>110.48,</t>
-  </si>
-  <si>
-    <t>155.51,</t>
-  </si>
-  <si>
-    <t>38.88,</t>
-  </si>
-  <si>
-    <t>2055.13,</t>
-  </si>
-  <si>
-    <t>4.18,</t>
-  </si>
-  <si>
-    <t>111.21,</t>
-  </si>
-  <si>
-    <t>308.97,</t>
-  </si>
-  <si>
-    <t>204.36,</t>
-  </si>
-  <si>
-    <t>84.07,</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>107.22,</t>
-  </si>
-  <si>
-    <t>170.24,</t>
-  </si>
-  <si>
-    <t>2183.51,</t>
-  </si>
-  <si>
-    <t>3.69,</t>
-  </si>
-  <si>
-    <t>107.55,</t>
-  </si>
-  <si>
-    <t>339.46,</t>
-  </si>
-  <si>
-    <t>217.39,</t>
-  </si>
-  <si>
-    <t>83.97,</t>
-  </si>
-  <si>
-    <t>18.52</t>
-  </si>
-  <si>
-    <t>98.23,</t>
-  </si>
-  <si>
-    <t>196.76,</t>
-  </si>
-  <si>
-    <t>38.26,</t>
-  </si>
-  <si>
-    <t>2311.89,</t>
-  </si>
-  <si>
-    <t>3.25,</t>
-  </si>
-  <si>
-    <t>98.46,</t>
-  </si>
-  <si>
-    <t>392.61,</t>
-  </si>
-  <si>
-    <t>38.17,</t>
-  </si>
-  <si>
-    <t>232.09,</t>
-  </si>
-  <si>
-    <t>83.27,</t>
-  </si>
-  <si>
-    <t>16.19</t>
-  </si>
-  <si>
-    <t>92.92,</t>
-  </si>
-  <si>
-    <t>219.55,</t>
-  </si>
-  <si>
-    <t>2445.03,</t>
-  </si>
-  <si>
-    <t>8.34,</t>
-  </si>
-  <si>
-    <t>2.85,</t>
-  </si>
-  <si>
-    <t>98.81,</t>
-  </si>
-  <si>
-    <t>412.93,</t>
-  </si>
-  <si>
-    <t>35.32,</t>
-  </si>
-  <si>
-    <t>245.01,</t>
-  </si>
-  <si>
-    <t>14.24</t>
-  </si>
-  <si>
-    <t>90.36,</t>
-  </si>
-  <si>
-    <t>237.65,</t>
-  </si>
-  <si>
-    <t>35.65,</t>
-  </si>
-  <si>
-    <t>2568.64,</t>
-  </si>
-  <si>
-    <t>2.51,</t>
-  </si>
-  <si>
-    <t>100.17,</t>
-  </si>
-  <si>
-    <t>428.76,</t>
-  </si>
-  <si>
-    <t>32.16,</t>
-  </si>
-  <si>
-    <t>254.39,</t>
-  </si>
-  <si>
-    <t>84.42,</t>
-  </si>
-  <si>
-    <t>12.66</t>
-  </si>
-  <si>
-    <t>97.31,</t>
-  </si>
-  <si>
-    <t>231.71,</t>
-  </si>
-  <si>
-    <t>30.34,</t>
-  </si>
-  <si>
-    <t>2702.28,</t>
-  </si>
-  <si>
-    <t>2.19,</t>
-  </si>
-  <si>
-    <t>103.23,</t>
-  </si>
-  <si>
-    <t>436.86,</t>
-  </si>
-  <si>
-    <t>28.60,</t>
-  </si>
-  <si>
-    <t>267.04,</t>
-  </si>
-  <si>
-    <t>84.44,</t>
-  </si>
-  <si>
-    <t>11.06</t>
-  </si>
-  <si>
-    <t>97.64,</t>
-  </si>
-  <si>
-    <t>241.94,</t>
-  </si>
-  <si>
-    <t>27.49,</t>
-  </si>
-  <si>
-    <t>2825.39,</t>
-  </si>
-  <si>
-    <t>1.90,</t>
-  </si>
-  <si>
-    <t>103.44,</t>
-  </si>
-  <si>
-    <t>456.74,</t>
-  </si>
-  <si>
-    <t>25.95,</t>
-  </si>
-  <si>
-    <t>275.58,</t>
-  </si>
-  <si>
-    <t>85.72,</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>103.77,</t>
-  </si>
-  <si>
-    <t>237.98,</t>
-  </si>
-  <si>
-    <t>23.28,</t>
-  </si>
-  <si>
-    <t>2953.77,</t>
-  </si>
-  <si>
-    <t>1.64,</t>
-  </si>
-  <si>
-    <t>109.70,</t>
-  </si>
-  <si>
-    <t>450.23,</t>
-  </si>
-  <si>
-    <t>22.02,</t>
-  </si>
-  <si>
-    <t>288.93,</t>
-  </si>
-  <si>
-    <t>85.48,</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>104.10,</t>
-  </si>
-  <si>
-    <t>247.54,</t>
-  </si>
-  <si>
-    <t>20.63,</t>
-  </si>
-  <si>
-    <t>3088.16,</t>
-  </si>
-  <si>
-    <t>1.39,</t>
-  </si>
-  <si>
-    <t>109.16,</t>
-  </si>
-  <si>
-    <t>472.13,</t>
-  </si>
-  <si>
-    <t>19.67,</t>
-  </si>
-  <si>
-    <t>296.48,</t>
-  </si>
-  <si>
-    <t>86.92,</t>
-  </si>
-  <si>
-    <t>7.24</t>
-  </si>
-  <si>
-    <t>107.94,</t>
-  </si>
-  <si>
-    <t>248.68,</t>
-  </si>
-  <si>
-    <t>17.41,</t>
-  </si>
-  <si>
-    <t>3210.52,</t>
-  </si>
-  <si>
-    <t>1.17,</t>
-  </si>
-  <si>
-    <t>114.53,</t>
-  </si>
-  <si>
-    <t>468.78,</t>
-  </si>
-  <si>
-    <t>16.41,</t>
-  </si>
-  <si>
-    <t>311.44,</t>
-  </si>
-  <si>
-    <t>86.19,</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>114.95,</t>
-  </si>
-  <si>
-    <t>242.87,</t>
-  </si>
-  <si>
-    <t>14.01,</t>
-  </si>
-  <si>
-    <t>3338.90,</t>
-  </si>
-  <si>
-    <t>0.96,</t>
-  </si>
-  <si>
-    <t>117.37,</t>
-  </si>
-  <si>
-    <t>475.70,</t>
-  </si>
-  <si>
-    <t>13.72,</t>
-  </si>
-  <si>
-    <t>323.21,</t>
-  </si>
-  <si>
-    <t>86.37,</t>
-  </si>
-  <si>
-    <t>4.98</t>
-  </si>
-  <si>
-    <t>118.74,</t>
-  </si>
-  <si>
-    <t>244.15,</t>
-  </si>
-  <si>
-    <t>11.30,</t>
-  </si>
-  <si>
-    <t>2008.51,</t>
-  </si>
-  <si>
-    <t>14.43,</t>
-  </si>
-  <si>
-    <t>1.34,</t>
-  </si>
-  <si>
-    <t>70.79,</t>
-  </si>
-  <si>
-    <t>819.05,</t>
-  </si>
-  <si>
-    <t>18.96,</t>
-  </si>
-  <si>
-    <t>188.91,  1</t>
-  </si>
-  <si>
-    <t>53.46,</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>68.05,</t>
-  </si>
-  <si>
-    <t>441.81,</t>
-  </si>
-  <si>
-    <t>2023.57,</t>
-  </si>
-  <si>
-    <t>14.86,</t>
-  </si>
-  <si>
-    <t>1.06,</t>
-  </si>
-  <si>
-    <t>70.75,</t>
-  </si>
-  <si>
-    <t>849.94,</t>
-  </si>
-  <si>
-    <t>15.18,</t>
-  </si>
-  <si>
-    <t>194.64,  1</t>
-  </si>
-  <si>
-    <t>54.46,</t>
-  </si>
-  <si>
-    <t>5.52</t>
-  </si>
-  <si>
-    <t>439.87,</t>
-  </si>
-  <si>
-    <t>11.38,</t>
-  </si>
-  <si>
-    <t>2092.22,</t>
-  </si>
-  <si>
-    <t>14.88,</t>
-  </si>
-  <si>
-    <t>0.77,</t>
-  </si>
-  <si>
-    <t>72.02,</t>
-  </si>
-  <si>
-    <t>864.73,</t>
-  </si>
-  <si>
-    <t>11.18,</t>
-  </si>
-  <si>
-    <t>201.51,  1</t>
-  </si>
-  <si>
-    <t>54.53,</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>73.07,</t>
-  </si>
-  <si>
-    <t>440.81,</t>
-  </si>
-  <si>
-    <t>7.35,</t>
-  </si>
-  <si>
-    <t>2163.69,</t>
-  </si>
-  <si>
-    <t>14.89,</t>
-  </si>
-  <si>
-    <t>0.50,</t>
-  </si>
-  <si>
-    <t>74.94,</t>
-  </si>
-  <si>
-    <t>859.70,</t>
-  </si>
-  <si>
-    <t>7.16,</t>
-  </si>
-  <si>
-    <t>207.82,  1</t>
-  </si>
-  <si>
-    <t>55.00,</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>71.49,</t>
-  </si>
-  <si>
-    <t>465.60,</t>
-  </si>
-  <si>
-    <t>3.75,</t>
-  </si>
-  <si>
-    <t>2236.03,</t>
-  </si>
-  <si>
-    <t>0.24,</t>
-  </si>
-  <si>
-    <t>73.20,</t>
-  </si>
-  <si>
-    <t>909.45,</t>
-  </si>
-  <si>
-    <t>3.67,</t>
-  </si>
-  <si>
-    <t>210.85,  1</t>
-  </si>
-  <si>
-    <t>57.87,</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>inf,</t>
-  </si>
-  <si>
-    <t>74.86,</t>
-  </si>
-  <si>
-    <t>458.97,</t>
-  </si>
-  <si>
-    <t>2308.14,</t>
-  </si>
-  <si>
-    <t>76.12,</t>
-  </si>
-  <si>
-    <t>902.77,</t>
-  </si>
-  <si>
-    <t>219.26,  1</t>
-  </si>
-  <si>
-    <t>56.71,</t>
-  </si>
-  <si>
-    <t>0.00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="394">
+  <si>
+    <t>Experiment ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single Precision ops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Double precision ops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Half precision ops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Integer operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Compute iters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flops/byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex.time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GFLOPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GB/sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iops/byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   GIOPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  387.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  454.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  220.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  220.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  215.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  441.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  214.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  216.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  208.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  427.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  209.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  208.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  414.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  203.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  197.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  514.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  29.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  197.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   43.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  197.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  191.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  643.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  191.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   56.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  190.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  183.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  771.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  183.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  183.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  176.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  899.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  176.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  177.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  168.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   50.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1028.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  169.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  101.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  168.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   51.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  162.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   59.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1156.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  161.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  119.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  162.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   59.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  155.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   69.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1284.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  155.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  138.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  155.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   69.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  149.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   79.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1413.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  148.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  158.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  151.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   78.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  142.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   90.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1541.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  142.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  180.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  159.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   80.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  33.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  136.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  102.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1670.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  136.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  176.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   79.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  129.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  116.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1798.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  233.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  185.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   81.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  26.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  122.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  131.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1926.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  122.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  263.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  194.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   82.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  110.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  155.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2055.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  111.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  308.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  107.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  170.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2183.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  107.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  339.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  217.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   83.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   98.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  196.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2311.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   98.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  392.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  232.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   83.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   92.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  219.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2445.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   98.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  412.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  245.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   90.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  237.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2568.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  428.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  32.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  254.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   97.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  231.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2702.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  103.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  436.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  267.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   97.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  241.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2825.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  103.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  456.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  275.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   85.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  103.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  237.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2953.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  109.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  450.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  288.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   85.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  104.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  247.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3088.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  109.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  472.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  296.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   86.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  107.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  248.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3210.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  114.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  468.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  311.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   86.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  114.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  242.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3338.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  117.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  475.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  323.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   86.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  118.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  244.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2008.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  819.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  188.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  153.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   68.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  441.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  849.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  194.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  154.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  439.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2092.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  864.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  201.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  154.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   73.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  440.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2163.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   74.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  859.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  207.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  155.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   71.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  465.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2236.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   73.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  909.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  210.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  157.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   74.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  458.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2308.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  902.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  219.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  156.71</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1277,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,23 +1565,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1585,88 +1591,70 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1674,52 +1662,52 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1727,52 +1715,52 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1780,52 +1768,52 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1833,52 +1821,52 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>66</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>68</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>71</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1886,43 +1874,43 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
       </c>
       <c r="J7" s="1">
         <v>1143</v>
       </c>
       <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>82</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>83</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
       </c>
       <c r="O7" t="s">
         <v>84</v>
@@ -1957,7 +1945,7 @@
         <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
         <v>93</v>
@@ -1975,16 +1963,16 @@
         <v>96</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1992,52 +1980,52 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J9" s="1">
         <v>1846</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2048,49 +2036,49 @@
         <v>1120</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J10" s="1">
         <v>2240</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" s="1">
         <v>1120</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2101,49 +2089,49 @@
         <v>1333</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J11" s="1">
         <v>2667</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1">
         <v>1333</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2154,46 +2142,46 @@
         <v>1565</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="1">
         <v>3130</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" s="1">
         <v>1565</v>
       </c>
       <c r="O12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12" t="s">
         <v>86</v>
@@ -2207,49 +2195,49 @@
         <v>1818</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1">
         <v>3636</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="1">
         <v>1818</v>
       </c>
       <c r="O13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2275,7 +2263,7 @@
         <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
         <v>162</v>
@@ -2328,7 +2316,7 @@
         <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
         <v>172</v>
@@ -2381,7 +2369,7 @@
         <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
         <v>183</v>
@@ -2434,7 +2422,7 @@
         <v>192</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
         <v>193</v>
@@ -2487,7 +2475,7 @@
         <v>201</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
         <v>202</v>
@@ -2540,7 +2528,7 @@
         <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>213</v>
@@ -2555,7 +2543,7 @@
         <v>215</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N19" s="1">
         <v>4000</v>
@@ -2593,7 +2581,7 @@
         <v>221</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
         <v>222</v>
@@ -2646,7 +2634,7 @@
         <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
         <v>232</v>
@@ -2752,7 +2740,7 @@
         <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
         <v>253</v>
@@ -2858,7 +2846,7 @@
         <v>274</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
         <v>275</v>
@@ -2911,7 +2899,7 @@
         <v>285</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
         <v>286</v>
@@ -3017,7 +3005,7 @@
         <v>307</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
         <v>308</v>
@@ -3070,7 +3058,7 @@
         <v>318</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
         <v>319</v>
@@ -3167,43 +3155,43 @@
         <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="F31" s="1">
         <v>14000</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J31" s="1">
         <v>56000</v>
       </c>
       <c r="K31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N31" s="1">
         <v>28000</v>
       </c>
       <c r="O31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -3217,46 +3205,46 @@
         <v>332</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F32" s="1">
         <v>19333</v>
       </c>
       <c r="G32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J32" s="1">
         <v>77333</v>
       </c>
       <c r="K32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N32" s="1">
         <v>38667</v>
       </c>
       <c r="O32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -3267,49 +3255,49 @@
         <v>60000</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F33" s="1">
         <v>30000</v>
       </c>
       <c r="G33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J33" s="1">
         <v>120000</v>
       </c>
       <c r="K33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N33" s="1">
         <v>60000</v>
       </c>
       <c r="O33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3320,49 +3308,49 @@
         <v>124000</v>
       </c>
       <c r="C34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F34" s="1">
         <v>62000</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J34" s="1">
         <v>248000</v>
       </c>
       <c r="K34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N34" s="1">
         <v>124000</v>
       </c>
       <c r="O34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3370,52 +3358,52 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" t="s">
+        <v>387</v>
+      </c>
+      <c r="F35" t="s">
         <v>384</v>
       </c>
-      <c r="D35" t="s">
-        <v>385</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>383</v>
-      </c>
       <c r="G35" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="J35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K35" t="s">
+        <v>389</v>
+      </c>
+      <c r="L35" t="s">
+        <v>390</v>
+      </c>
+      <c r="M35" t="s">
         <v>387</v>
       </c>
-      <c r="L35" t="s">
-        <v>388</v>
-      </c>
-      <c r="M35" t="s">
-        <v>20</v>
-      </c>
       <c r="N35" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="O35" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P35" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q35" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/test/benchmark-4.4.38-nort/xlsx/mixbench-cuda-alt.xlsx
+++ b/test/benchmark-4.4.38-nort/xlsx/mixbench-cuda-alt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,6 +152,2008 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mixbench</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Alt, No-rt)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248.68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>242.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>244.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>441.81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>439.87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440.81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>465.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>458.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Double Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Half Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent3"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>204.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>263.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>308.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>392.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>412.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>428.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>436.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>456.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>450.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>472.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>468.78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>475.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>819.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>849.9400000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>864.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>859.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>909.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>902.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>38.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Integer Operations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent4"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>157.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>38.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-634066784"/>
+        <c:axId val="-634063728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-634066784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="950.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth (GB/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-634063728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-634063728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (GFLOPS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-634066784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +2425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2270,5 +4274,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>